--- a/luffing/luffingbeam.xlsx
+++ b/luffing/luffingbeam.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyWork\luffingbeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80C2B1D-A309-4AC4-A0DF-87480B0D35A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9260CE0B-6A58-4047-A87C-2748892F073D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="465" windowWidth="28860" windowHeight="15030" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-960" yWindow="645" windowWidth="19695" windowHeight="15030" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>吊臂序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,23 +244,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>头部吊臂分段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上平面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下平面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根部吊臂分段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吊臂的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压杆吊臂距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A塔高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A塔下宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A塔上宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A塔跨度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +431,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -486,6 +489,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1597,13 +1607,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B522B9-53BE-48A8-9970-380461FDA749}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="15" max="15" width="13.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
@@ -1944,117 +1957,62 @@
         <v>3</v>
       </c>
       <c r="Q12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N13" s="23">
+        <v>11</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="24">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N14" s="19">
+        <v>12</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" s="24">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N15" s="23">
+        <v>13</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="P15" s="24">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N16" s="19">
+        <v>14</v>
+      </c>
+      <c r="O16" s="18" t="s">
         <v>58</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47935EF-C1EA-483E-B735-47A1924BC954}">
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1338</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1175</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1300</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1375</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1450</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1590</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E8">
-        <v>7</v>
+      <c r="P16" s="24">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N17" s="23">
+        <v>15</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" s="25">
+        <v>5300</v>
       </c>
     </row>
   </sheetData>

--- a/luffing/luffingbeam.xlsx
+++ b/luffing/luffingbeam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyWork\luffingbeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9260CE0B-6A58-4047-A87C-2748892F073D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008A07FF-32C0-48BE-8E16-FE7CF6AED017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-960" yWindow="645" windowWidth="19695" windowHeight="15030" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20160" yWindow="2175" windowWidth="15150" windowHeight="11790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t>吊臂序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,6 +265,10 @@
   </si>
   <si>
     <t>A塔跨度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊臂根部板厚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -342,7 +346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -424,6 +428,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -431,7 +444,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -497,6 +510,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -782,7 +798,7 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1607,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B522B9-53BE-48A8-9970-380461FDA749}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2015,6 +2031,17 @@
         <v>5300</v>
       </c>
     </row>
+    <row r="18" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N18" s="26">
+        <v>16</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" s="25">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/luffing/luffingbeam.xlsx
+++ b/luffing/luffingbeam.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyWork\luffingbeam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANSYSWORK\ANSYS-WORK-2021\lvdai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008A07FF-32C0-48BE-8E16-FE7CF6AED017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D40D4F6-3E21-468C-A6FB-A4FFDB78243D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20160" yWindow="2175" windowWidth="15150" windowHeight="11790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9840" yWindow="1710" windowWidth="22845" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -514,6 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -797,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -885,10 +886,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -900,10 +901,10 @@
         <v>3</v>
       </c>
       <c r="J2" s="1">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="K2" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
@@ -950,13 +951,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -968,7 +969,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="1">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="K3" s="1">
         <v>3</v>
@@ -1018,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1036,10 +1037,10 @@
         <v>3</v>
       </c>
       <c r="J4" s="1">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="K4" s="1">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L4" s="1">
         <v>0</v>
@@ -1086,25 +1087,41 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="H5" s="3">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>108</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
       <c r="Q5" s="2">
         <v>4</v>
       </c>
@@ -1138,25 +1155,41 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="H6" s="3">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>108</v>
+      </c>
+      <c r="K6" s="1">
+        <v>8</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -1166,53 +1199,73 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="H7" s="3">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>108</v>
+      </c>
+      <c r="K7" s="1">
+        <v>10</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="H8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>60</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -1625,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B522B9-53BE-48A8-9970-380461FDA749}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1683,10 +1736,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>8228</v>
+        <v>6500</v>
       </c>
       <c r="C2" s="1">
-        <v>1850</v>
+        <v>1400</v>
       </c>
       <c r="D2" s="1">
         <v>1500</v>
@@ -1722,7 +1775,7 @@
         <v>39</v>
       </c>
       <c r="P2" s="7">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -1730,7 +1783,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>8760</v>
+        <v>9000</v>
       </c>
       <c r="C3" s="1">
         <v>1500</v>
@@ -1745,7 +1798,7 @@
         <v>1500</v>
       </c>
       <c r="G3" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
@@ -1765,7 +1818,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>8760</v>
+        <v>9000</v>
       </c>
       <c r="C4" s="1">
         <v>1500</v>
@@ -1780,7 +1833,7 @@
         <v>1500</v>
       </c>
       <c r="G4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -1800,7 +1853,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>8760</v>
+        <v>6000</v>
       </c>
       <c r="C5" s="1">
         <v>1500</v>
@@ -1815,7 +1868,7 @@
         <v>1500</v>
       </c>
       <c r="G5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -1827,7 +1880,7 @@
         <v>42</v>
       </c>
       <c r="P5" s="2">
-        <v>120</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -1835,7 +1888,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>5340</v>
+        <v>3000</v>
       </c>
       <c r="C6" s="1">
         <v>1500</v>
@@ -1850,7 +1903,7 @@
         <v>1500</v>
       </c>
       <c r="G6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -1862,7 +1915,7 @@
         <v>45</v>
       </c>
       <c r="P6" s="21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -1870,22 +1923,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>5340</v>
+        <v>6500</v>
       </c>
       <c r="C7" s="1">
         <v>1500</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="27">
+        <v>500</v>
+      </c>
+      <c r="E7" s="27">
         <v>1500</v>
       </c>
-      <c r="E7" s="1">
-        <v>1500</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1500</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3</v>
+      <c r="F7" s="27">
+        <v>300</v>
+      </c>
+      <c r="G7" s="27">
+        <v>6</v>
       </c>
       <c r="N7" s="20">
         <v>5</v>
@@ -1894,31 +1947,17 @@
         <v>46</v>
       </c>
       <c r="P7" s="5">
-        <v>18</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>8090</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1500</v>
-      </c>
-      <c r="D8" s="1">
-        <v>800</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1500</v>
-      </c>
-      <c r="F8" s="1">
-        <v>350</v>
-      </c>
-      <c r="G8" s="1">
-        <v>6</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
       <c r="N8" s="19">
         <v>6</v>
       </c>
@@ -1926,10 +1965,17 @@
         <v>47</v>
       </c>
       <c r="P8" s="5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
       <c r="N9" s="20">
         <v>7</v>
       </c>
@@ -1941,6 +1987,13 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="N10" s="19">
         <v>8</v>
       </c>
@@ -1948,10 +2001,17 @@
         <v>49</v>
       </c>
       <c r="P10" s="5">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
       <c r="N11" s="20">
         <v>9</v>
       </c>
@@ -1963,6 +2023,13 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
       <c r="N12" s="19">
         <v>10</v>
       </c>
@@ -1970,7 +2037,7 @@
         <v>53</v>
       </c>
       <c r="P12" s="22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q12" t="s">
         <v>54</v>
@@ -1984,7 +2051,7 @@
         <v>55</v>
       </c>
       <c r="P13" s="24">
-        <v>230</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -1995,7 +2062,7 @@
         <v>56</v>
       </c>
       <c r="P14" s="24">
-        <v>8000</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -2006,7 +2073,7 @@
         <v>57</v>
       </c>
       <c r="P15" s="24">
-        <v>1850</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -2017,7 +2084,7 @@
         <v>58</v>
       </c>
       <c r="P16" s="24">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="14:16" x14ac:dyDescent="0.2">
@@ -2028,7 +2095,7 @@
         <v>59</v>
       </c>
       <c r="P17" s="25">
-        <v>5300</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="18" spans="14:16" x14ac:dyDescent="0.2">
